--- a/Results/Results_S5.xlsx
+++ b/Results/Results_S5.xlsx
@@ -404,25 +404,25 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>21.13602999991486</v>
+        <v>21.13602999991246</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.720529755742432E-07</v>
+        <v>-7.720552620793872E-07</v>
       </c>
       <c r="F2">
-        <v>0.2383008576070176</v>
+        <v>0.2389096387727623</v>
       </c>
       <c r="G2">
-        <v>3674.041595961629</v>
+        <v>3669.052557726704</v>
       </c>
       <c r="H2">
-        <v>0.5752800954443957</v>
+        <v>0.5760623394560491</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>21.91985209990577</v>
+        <v>21.91985209994788</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>3.86029E-07</v>
       </c>
       <c r="F3">
-        <v>0.2819130878107346</v>
+        <v>0.2818152875142326</v>
       </c>
       <c r="G3">
-        <v>3801.751446717687</v>
+        <v>3800.132541317691</v>
       </c>
       <c r="H3">
-        <v>0.5765724668515791</v>
+        <v>0.5768180941485583</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>22.70966652997603</v>
+        <v>22.70966652997307</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.860239755742433E-07</v>
+        <v>3.860262620793873E-07</v>
       </c>
       <c r="F4">
-        <v>0.3022349663754342</v>
+        <v>0.3014897732901751</v>
       </c>
       <c r="G4">
-        <v>3966.347766001404</v>
+        <v>3989.724155585123</v>
       </c>
       <c r="H4">
-        <v>0.5725586325192643</v>
+        <v>0.5692039259952929</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>2026</v>
       </c>
       <c r="B5">
-        <v>23.48373149995323</v>
+        <v>23.48373150006158</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3149351472343503</v>
+        <v>0.3136068395135485</v>
       </c>
       <c r="G5">
-        <v>4171.792493185959</v>
+        <v>4196.359215999511</v>
       </c>
       <c r="H5">
-        <v>0.5629170563567251</v>
+        <v>0.5596215741141717</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>2027</v>
       </c>
       <c r="B6">
-        <v>24.36210549998431</v>
+        <v>24.36210549998146</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3180514558242241</v>
+        <v>0.3226878663647829</v>
       </c>
       <c r="G6">
-        <v>4436.462427177708</v>
+        <v>4399.733934935221</v>
       </c>
       <c r="H6">
-        <v>0.5491335923582352</v>
+        <v>0.5537176988485363</v>
       </c>
     </row>
     <row r="7">
@@ -534,7 +534,7 @@
         <v>2028</v>
       </c>
       <c r="B7">
-        <v>25.37542010988308</v>
+        <v>25.37542010995438</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -543,16 +543,16 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>135.394369082</v>
+        <v>123.354268245</v>
       </c>
       <c r="F7">
-        <v>0.3189209742548371</v>
+        <v>0.3202428064628157</v>
       </c>
       <c r="G7">
-        <v>4711.231008689671</v>
+        <v>4709.601962012134</v>
       </c>
       <c r="H7">
-        <v>0.5386154927041182</v>
+        <v>0.5388017992737748</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +560,7 @@
         <v>2029</v>
       </c>
       <c r="B8">
-        <v>26.54542002995863</v>
+        <v>26.54542002997925</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -569,16 +569,16 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>143.78290679</v>
+        <v>131.742805953</v>
       </c>
       <c r="F8">
-        <v>0.3650169480376426</v>
+        <v>0.3646651455146169</v>
       </c>
       <c r="G8">
-        <v>4895.328399152992</v>
+        <v>4901.853013030957</v>
       </c>
       <c r="H8">
-        <v>0.5422602502939662</v>
+        <v>0.5415384745199744</v>
       </c>
     </row>
     <row r="9">
@@ -592,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>136.7962520009381</v>
+        <v>131.8719256233472</v>
       </c>
       <c r="F9">
-        <v>0.3818546804362378</v>
+        <v>0.3734427761355451</v>
       </c>
       <c r="G9">
-        <v>5054.175735731383</v>
+        <v>5034.280137212208</v>
       </c>
       <c r="H9">
-        <v>0.5544270067987396</v>
+        <v>0.5566181159215553</v>
       </c>
     </row>
     <row r="10">
@@ -612,7 +612,7 @@
         <v>2031</v>
       </c>
       <c r="B10">
-        <v>28.84944070996334</v>
+        <v>28.84944070996335</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -621,16 +621,16 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>253.1932075293339</v>
+        <v>277.734877506</v>
       </c>
       <c r="F10">
-        <v>0.3684919504453326</v>
+        <v>0.3675990765247539</v>
       </c>
       <c r="G10">
-        <v>5260.82624362851</v>
+        <v>5265.494010134662</v>
       </c>
       <c r="H10">
-        <v>0.5483823143732119</v>
+        <v>0.547896183234392</v>
       </c>
     </row>
     <row r="11">
@@ -638,25 +638,25 @@
         <v>2032</v>
       </c>
       <c r="B11">
-        <v>29.67297186996123</v>
+        <v>29.67297186996335</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>157.594486891296</v>
+        <v>155.9879130427576</v>
       </c>
       <c r="F11">
-        <v>0.3851664476414066</v>
+        <v>0.3832457607533119</v>
       </c>
       <c r="G11">
-        <v>5403.672852687728</v>
+        <v>5400.305099148954</v>
       </c>
       <c r="H11">
-        <v>0.5491259866925923</v>
+        <v>0.5494684341934603</v>
       </c>
     </row>
     <row r="12">
@@ -664,25 +664,25 @@
         <v>2033</v>
       </c>
       <c r="B12">
-        <v>30.56014719996006</v>
+        <v>30.56014719996283</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>381.5733545978786</v>
+        <v>355.4414327389016</v>
       </c>
       <c r="F12">
-        <v>0.3748647440696463</v>
+        <v>0.3766049914101784</v>
       </c>
       <c r="G12">
-        <v>5703.967226133747</v>
+        <v>5704.430718030029</v>
       </c>
       <c r="H12">
-        <v>0.5357700349318852</v>
+        <v>0.5357265029684941</v>
       </c>
     </row>
     <row r="13">
@@ -690,25 +690,25 @@
         <v>2034</v>
       </c>
       <c r="B13">
-        <v>31.47516354993889</v>
+        <v>31.47516354999119</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>14.00000001186676</v>
       </c>
       <c r="D13">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>491.677793377878</v>
+        <v>448.3740344923788</v>
       </c>
       <c r="F13">
-        <v>0.3397098185610484</v>
+        <v>0.350410661991486</v>
       </c>
       <c r="G13">
-        <v>6088.040524795366</v>
+        <v>6060.301438050462</v>
       </c>
       <c r="H13">
-        <v>0.5169999020497134</v>
+        <v>0.5193663033388062</v>
       </c>
     </row>
     <row r="14">
@@ -716,25 +716,25 @@
         <v>2035</v>
       </c>
       <c r="B14">
-        <v>32.37400743996596</v>
+        <v>32.37400743996548</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E14">
-        <v>449.9257768837409</v>
+        <v>463.8926687782198</v>
       </c>
       <c r="F14">
-        <v>0.3237057088159932</v>
+        <v>0.3283106545837414</v>
       </c>
       <c r="G14">
-        <v>6432.105787053786</v>
+        <v>6413.489705088802</v>
       </c>
       <c r="H14">
-        <v>0.5033189520160989</v>
+        <v>0.5047799081095933</v>
       </c>
     </row>
     <row r="15">
@@ -742,25 +742,25 @@
         <v>2036</v>
       </c>
       <c r="B15">
-        <v>32.66068968995093</v>
+        <v>32.66068968992083</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9.999999988282495</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>442.0182574302375</v>
+        <v>442.8869658864138</v>
       </c>
       <c r="F15">
-        <v>0.3083437223000589</v>
+        <v>0.3139295491017807</v>
       </c>
       <c r="G15">
-        <v>6612.909183535525</v>
+        <v>6610.430783242102</v>
       </c>
       <c r="H15">
-        <v>0.4938929113266489</v>
+        <v>0.4940780829702949</v>
       </c>
     </row>
     <row r="16">
@@ -768,25 +768,25 @@
         <v>2037</v>
       </c>
       <c r="B16">
-        <v>32.98604484994559</v>
+        <v>32.98604484994608</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>291.4717350672009</v>
+        <v>341.8566413036993</v>
       </c>
       <c r="F16">
-        <v>0.283358527394559</v>
+        <v>0.2886924322034739</v>
       </c>
       <c r="G16">
-        <v>6759.675276573585</v>
+        <v>6762.420392244242</v>
       </c>
       <c r="H16">
-        <v>0.4879826840833973</v>
+        <v>0.4877845939270128</v>
       </c>
     </row>
     <row r="17">
@@ -794,25 +794,25 @@
         <v>2038</v>
       </c>
       <c r="B17">
-        <v>33.30311283992457</v>
+        <v>33.30311283997273</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E17">
-        <v>226.5508920376205</v>
+        <v>246.9476198810972</v>
       </c>
       <c r="F17">
-        <v>0.2734120318311772</v>
+        <v>0.2782306195582225</v>
       </c>
       <c r="G17">
-        <v>6798.362776037601</v>
+        <v>6842.12660282243</v>
       </c>
       <c r="H17">
-        <v>0.4898696044481339</v>
+        <v>0.4867362849765881</v>
       </c>
     </row>
     <row r="18">
@@ -820,25 +820,25 @@
         <v>2039</v>
       </c>
       <c r="B18">
-        <v>33.60121257989681</v>
+        <v>33.60121257994632</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>305.8388585371498</v>
+        <v>272.8626297913535</v>
       </c>
       <c r="F18">
-        <v>0.275000679209451</v>
+        <v>0.279270765184405</v>
       </c>
       <c r="G18">
-        <v>7039.323105965795</v>
+        <v>7046.135737489892</v>
       </c>
       <c r="H18">
-        <v>0.4773358471274026</v>
+        <v>0.4768743298708631</v>
       </c>
     </row>
     <row r="19">
@@ -846,25 +846,25 @@
         <v>2040</v>
       </c>
       <c r="B19">
-        <v>33.85745438989905</v>
+        <v>33.85745438994953</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19">
-        <v>285.6809335809012</v>
+        <v>287.9371385817029</v>
       </c>
       <c r="F19">
-        <v>0.2749227107107505</v>
+        <v>0.2790493973473648</v>
       </c>
       <c r="G19">
-        <v>7213.335904139037</v>
+        <v>7227.972955734796</v>
       </c>
       <c r="H19">
-        <v>0.4693730451464423</v>
+        <v>0.4684225383423226</v>
       </c>
     </row>
     <row r="20">
@@ -872,25 +872,25 @@
         <v>2041</v>
       </c>
       <c r="B20">
-        <v>33.90854971989901</v>
+        <v>33.90854971994773</v>
       </c>
       <c r="C20">
-        <v>3.0000000193064</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>174.8703397079259</v>
+        <v>163.1886755144047</v>
       </c>
       <c r="F20">
-        <v>0.2711197277173512</v>
+        <v>0.2752464143539625</v>
       </c>
       <c r="G20">
-        <v>7282.50488973708</v>
+        <v>7287.317251809995</v>
       </c>
       <c r="H20">
-        <v>0.4656165733260936</v>
+        <v>0.4653090917858099</v>
       </c>
     </row>
     <row r="21">
@@ -898,25 +898,25 @@
         <v>2042</v>
       </c>
       <c r="B21">
-        <v>33.95313007991345</v>
+        <v>33.95313007996212</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>247.7971743856546</v>
+        <v>247.8629601600733</v>
       </c>
       <c r="F21">
-        <v>0.2501964690163775</v>
+        <v>0.2543231556529904</v>
       </c>
       <c r="G21">
-        <v>7483.36792307027</v>
+        <v>7489.864164037691</v>
       </c>
       <c r="H21">
-        <v>0.4537145631346051</v>
+        <v>0.4533210394253455</v>
       </c>
     </row>
     <row r="22">
@@ -924,25 +924,25 @@
         <v>2043</v>
       </c>
       <c r="B22">
-        <v>33.96513225991275</v>
+        <v>33.96513225996133</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>144.1495026716397</v>
+        <v>144.125461568458</v>
       </c>
       <c r="F22">
-        <v>0.2391039392508692</v>
+        <v>0.243230625887482</v>
       </c>
       <c r="G22">
-        <v>7532.563873614589</v>
+        <v>7541.442601454946</v>
       </c>
       <c r="H22">
-        <v>0.4509106438365212</v>
+        <v>0.450379775527411</v>
       </c>
     </row>
     <row r="23">
@@ -950,25 +950,25 @@
         <v>2044</v>
       </c>
       <c r="B23">
-        <v>33.93400719991561</v>
+        <v>33.93400719996431</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <v>90.12197527189787</v>
+        <v>95.40279077684016</v>
       </c>
       <c r="F23">
-        <v>0.2387201272867959</v>
+        <v>0.245763302454937</v>
       </c>
       <c r="G23">
-        <v>7537.1740818091</v>
+        <v>7534.768445790509</v>
       </c>
       <c r="H23">
-        <v>0.4502218846426146</v>
+        <v>0.4503656276115879</v>
       </c>
     </row>
     <row r="24">
@@ -976,25 +976,25 @@
         <v>2045</v>
       </c>
       <c r="B24">
-        <v>33.86884201991501</v>
+        <v>33.86884201996345</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>195.8188234019816</v>
+        <v>185.4046056068198</v>
       </c>
       <c r="F24">
-        <v>0.2406206734664862</v>
+        <v>0.2508647508589566</v>
       </c>
       <c r="G24">
-        <v>7616.954688087273</v>
+        <v>7601.683714561826</v>
       </c>
       <c r="H24">
-        <v>0.4446506958074076</v>
+        <v>0.4455439517311686</v>
       </c>
     </row>
     <row r="25">
@@ -1002,25 +1002,25 @@
         <v>2046</v>
       </c>
       <c r="B25">
-        <v>33.66780206001381</v>
+        <v>33.66780206006461</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E25">
-        <v>407.4067638610547</v>
+        <v>410.4638908549811</v>
       </c>
       <c r="F25">
-        <v>0.272301527158444</v>
+        <v>0.2845918476479825</v>
       </c>
       <c r="G25">
-        <v>7546.446767012813</v>
+        <v>7529.976494668205</v>
       </c>
       <c r="H25">
-        <v>0.4461411191182479</v>
+        <v>0.4471169609082308</v>
       </c>
     </row>
     <row r="26">
@@ -1028,25 +1028,25 @@
         <v>2047</v>
       </c>
       <c r="B26">
-        <v>33.45336977992582</v>
+        <v>33.45336977997385</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E26">
-        <v>577.1208304033494</v>
+        <v>603.972563241376</v>
       </c>
       <c r="F26">
-        <v>0.2981722224543009</v>
+        <v>0.3089252116588242</v>
       </c>
       <c r="G26">
-        <v>7678.569578972933</v>
+        <v>7640.559580748975</v>
       </c>
       <c r="H26">
-        <v>0.4356718974265057</v>
+        <v>0.4378392632950916</v>
       </c>
     </row>
     <row r="27">
@@ -1054,25 +1054,25 @@
         <v>2048</v>
       </c>
       <c r="B27">
-        <v>33.25321099992466</v>
+        <v>33.25321099997402</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>54.99999933210577</v>
       </c>
       <c r="D27">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E27">
-        <v>513.3020573231132</v>
+        <v>518.5679144113528</v>
       </c>
       <c r="F27">
-        <v>0.3006336032327425</v>
+        <v>0.3067255742641442</v>
       </c>
       <c r="G27">
-        <v>7705.494047448253</v>
+        <v>7660.467368788697</v>
       </c>
       <c r="H27">
-        <v>0.4315519653270873</v>
+        <v>0.4340885405433447</v>
       </c>
     </row>
     <row r="28">
@@ -1080,25 +1080,25 @@
         <v>2049</v>
       </c>
       <c r="B28">
-        <v>33.0673546999345</v>
+        <v>33.06735469998501</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>42.99999952826219</v>
       </c>
       <c r="D28">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E28">
-        <v>336.311260886633</v>
+        <v>344.7096128525146</v>
       </c>
       <c r="F28">
-        <v>0.2940051017441373</v>
+        <v>0.2970878319725</v>
       </c>
       <c r="G28">
-        <v>7848.166458600147</v>
+        <v>7796.937657950089</v>
       </c>
       <c r="H28">
-        <v>0.4213386002242443</v>
+        <v>0.4241069526350276</v>
       </c>
     </row>
     <row r="29">
@@ -1106,25 +1106,25 @@
         <v>2050</v>
       </c>
       <c r="B29">
-        <v>32.89199017993682</v>
+        <v>32.89199017998607</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>34.0000000140303</v>
       </c>
       <c r="D29">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E29">
-        <v>190.1726917169084</v>
+        <v>196.6206573592569</v>
       </c>
       <c r="F29">
-        <v>0.2954815889317012</v>
+        <v>0.2975946042943587</v>
       </c>
       <c r="G29">
-        <v>8008.558560153118</v>
+        <v>7984.585735042743</v>
       </c>
       <c r="H29">
-        <v>0.4107104909439277</v>
+        <v>0.4119436032307817</v>
       </c>
     </row>
   </sheetData>
